--- a/updated Patient details.xlsx
+++ b/updated Patient details.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Patient details" sheetId="1" r:id="rId4"/>
+    <sheet name="Patient details" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="679">
   <si>
     <t>NHS Number</t>
   </si>
@@ -2053,28 +2056,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -2192,43 +2182,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2238,24 +2210,82 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff222222"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF222222"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -2447,7 +2477,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -2456,7 +2486,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -2465,7 +2495,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -2474,7 +2504,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2483,7 +2513,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2492,7 +2522,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2604,8 +2634,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -2613,14 +2643,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2639,7 +2669,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2647,7 +2677,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -2675,7 +2705,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2701,7 +2731,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2727,7 +2757,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2753,7 +2783,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2779,7 +2809,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2805,7 +2835,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2831,7 +2861,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2857,7 +2887,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2883,7 +2913,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2896,9 +2926,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2914,7 +2950,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2933,7 +2969,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2959,7 +2995,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2985,7 +3021,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3011,7 +3047,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3037,7 +3073,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3063,7 +3099,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3089,7 +3125,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3115,7 +3151,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3141,7 +3177,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3167,7 +3203,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3180,9 +3216,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -3195,7 +3237,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3214,7 +3256,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3244,7 +3286,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3270,7 +3312,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3296,7 +3338,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3322,7 +3364,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3348,7 +3390,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3374,7 +3416,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3400,7 +3442,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3426,7 +3468,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3452,7 +3494,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3465,5150 +3507,5157 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H231"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV231"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A207" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="49.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.8984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.8984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
-    <col min="9" max="256" width="6.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.69921875" style="1" customWidth="1"/>
+    <col min="9" max="256" width="6.59765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="17" customHeight="1">
+    <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="2">
         <v>4260597982</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s" s="2">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" ht="17" customHeight="1">
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="2">
         <v>8248314314</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" t="s" s="2">
+      <c r="H3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" ht="17" customHeight="1">
+    <row r="4" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="2">
         <v>4684570284</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s" s="2">
+      <c r="F4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s" s="2">
+      <c r="G4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s" s="2">
+      <c r="H4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="2">
         <v>1674029693</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="2">
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" t="s" s="2">
+      <c r="H5" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="2">
         <v>9552535578</v>
       </c>
-      <c r="B6" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s" s="2">
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s" s="2">
+      <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s" s="2">
+      <c r="E6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s" s="2">
+      <c r="F6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" ht="17" customHeight="1">
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="2">
         <v>9041287206</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s" s="2">
+      <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s" s="2">
+      <c r="F7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" t="s" s="2">
+      <c r="H7" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="2">
         <v>5756787307</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="C8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D8" t="s" s="2">
+      <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E8" t="s" s="2">
+      <c r="E8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F8" t="s" s="2">
+      <c r="F8" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" ht="17" customHeight="1">
+      <c r="H8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="2">
         <v>7606785463</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s" s="2">
+      <c r="C9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D9" t="s" s="2">
+      <c r="D9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" t="s" s="2">
+      <c r="H9" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="2">
         <v>9444008910</v>
       </c>
-      <c r="B10" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s" s="2">
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D10" t="s" s="2">
+      <c r="D10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H10" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" ht="17" customHeight="1">
+      <c r="H10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="2">
         <v>6807262612</v>
       </c>
-      <c r="B11" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s" s="2">
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" t="s" s="2">
+      <c r="H11" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1">
+    <row r="12" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="2">
         <v>5412056198</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" s="2" t="s">
         <v>61</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" ht="17" customHeight="1">
+      <c r="H12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="2">
         <v>4981051355</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" t="s" s="2">
+      <c r="H13" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1">
+    <row r="14" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="2">
         <v>7456433070</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s" s="2">
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" s="2" t="s">
         <v>69</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" t="s" s="2">
+      <c r="H14" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1">
+    <row r="15" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="2">
         <v>2086132059</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" ht="17" customHeight="1">
+      <c r="H15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="2">
         <v>3924347561</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s" s="2">
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" t="s" s="2">
+      <c r="H16" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1">
+    <row r="17" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="2">
         <v>6995229764</v>
       </c>
-      <c r="B17" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s" s="2">
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" ht="17" customHeight="1">
+      <c r="H17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="2">
         <v>7646514065</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" s="2" t="s">
         <v>83</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" t="s" s="2">
+      <c r="H18" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="1">
+    <row r="19" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="2">
         <v>5442884921</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G19" s="4"/>
-      <c r="H19" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" ht="17" customHeight="1">
+      <c r="H19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="2">
         <v>2487255100</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" s="2" t="s">
         <v>91</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" t="s" s="2">
+      <c r="H20" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" ht="17" customHeight="1">
+    <row r="21" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="2">
         <v>7126034292</v>
       </c>
-      <c r="B21" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s" s="2">
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" s="2" t="s">
         <v>94</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" ht="17" customHeight="1">
+      <c r="H21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="2">
         <v>2506593192</v>
       </c>
-      <c r="B22" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s" s="2">
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" s="2" t="s">
         <v>98</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" ht="17" customHeight="1">
+      <c r="H22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="2">
         <v>3309248088</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" s="2" t="s">
         <v>102</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="H23" t="s" s="2">
+      <c r="H23" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" ht="17" customHeight="1">
+    <row r="24" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="2">
         <v>4753773755</v>
       </c>
-      <c r="B24" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s" s="2">
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" s="2" t="s">
         <v>106</v>
       </c>
       <c r="G24" s="4"/>
-      <c r="H24" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" ht="17" customHeight="1">
+      <c r="H24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="2">
         <v>7873193552</v>
       </c>
-      <c r="B25" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s" s="2">
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" s="2" t="s">
         <v>110</v>
       </c>
       <c r="G25" s="4"/>
-      <c r="H25" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" ht="17" customHeight="1">
+      <c r="H25" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="2">
         <v>8695771611</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" s="2" t="s">
         <v>114</v>
       </c>
       <c r="G26" s="4"/>
-      <c r="H26" t="s" s="2">
+      <c r="H26" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" ht="17" customHeight="1">
+    <row r="27" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="2">
         <v>9257008260</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" s="2" t="s">
         <v>118</v>
       </c>
       <c r="G27" s="4"/>
-      <c r="H27" t="s" s="2">
+      <c r="H27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" ht="17" customHeight="1">
+    <row r="28" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="2">
         <v>4765979716</v>
       </c>
-      <c r="B28" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s" s="2">
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" s="2" t="s">
         <v>122</v>
       </c>
       <c r="G28" s="4"/>
-      <c r="H28" t="s" s="2">
+      <c r="H28" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" ht="17" customHeight="1">
+    <row r="29" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="2">
         <v>2484804682</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" s="2" t="s">
         <v>126</v>
       </c>
       <c r="G29" s="4"/>
-      <c r="H29" t="s" s="2">
+      <c r="H29" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" ht="17" customHeight="1">
+    <row r="30" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="2">
         <v>7811435343</v>
       </c>
-      <c r="B30" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s" s="2">
+      <c r="B30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" s="2" t="s">
         <v>130</v>
       </c>
       <c r="G30" s="4"/>
-      <c r="H30" t="s" s="2">
+      <c r="H30" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" ht="17" customHeight="1">
+    <row r="31" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="2">
         <v>3061228060</v>
       </c>
-      <c r="B31" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s" s="2">
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" s="2" t="s">
         <v>134</v>
       </c>
       <c r="G31" s="4"/>
-      <c r="H31" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" ht="17" customHeight="1">
+      <c r="H31" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="2">
         <v>2807135489</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" s="2" t="s">
         <v>138</v>
       </c>
       <c r="G32" s="4"/>
-      <c r="H32" t="s" s="2">
+      <c r="H32" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="33" ht="17" customHeight="1">
+    <row r="33" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="2">
         <v>5181151002</v>
       </c>
-      <c r="B33" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s" s="2">
+      <c r="B33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" s="2" t="s">
         <v>143</v>
       </c>
       <c r="G33" s="3"/>
-      <c r="H33" t="s" s="2">
+      <c r="H33" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" ht="17" customHeight="1">
+    <row r="34" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="2">
         <v>7821049438</v>
       </c>
-      <c r="B34" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C34" t="s" s="2">
+      <c r="B34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" s="2" t="s">
         <v>147</v>
       </c>
       <c r="G34" s="4"/>
-      <c r="H34" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" ht="17" customHeight="1">
+      <c r="H34" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="2">
         <v>2916897054</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" s="2" t="s">
         <v>151</v>
       </c>
       <c r="G35" s="4"/>
-      <c r="H35" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" ht="17" customHeight="1">
+      <c r="H35" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="2">
         <v>7427016563</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" s="2" t="s">
         <v>155</v>
       </c>
       <c r="G36" s="4"/>
-      <c r="H36" t="s" s="2">
+      <c r="H36" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" ht="17" customHeight="1">
+    <row r="37" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="2">
         <v>1389616924</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="B37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" s="2" t="s">
         <v>159</v>
       </c>
       <c r="G37" s="4"/>
-      <c r="H37" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" ht="17" customHeight="1">
+      <c r="H37" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="2">
         <v>3087071219</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" s="2" t="s">
         <v>163</v>
       </c>
       <c r="G38" s="3"/>
-      <c r="H38" t="s" s="2">
+      <c r="H38" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" ht="17" customHeight="1">
+    <row r="39" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="2">
         <v>5327230900</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C39" t="s" s="2">
+      <c r="C39" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D39" t="s" s="2">
+      <c r="D39" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" s="2" t="s">
         <v>167</v>
       </c>
       <c r="G39" s="4"/>
-      <c r="H39" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" ht="17" customHeight="1">
+      <c r="H39" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A40" s="2">
         <v>1055307639</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" s="2" t="s">
         <v>171</v>
       </c>
       <c r="G40" s="3"/>
-      <c r="H40" t="s" s="2">
+      <c r="H40" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" ht="17" customHeight="1">
+    <row r="41" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A41" s="2">
         <v>7295619646</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="B41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" s="2" t="s">
         <v>175</v>
       </c>
       <c r="G41" s="4"/>
-      <c r="H41" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" ht="17" customHeight="1">
+      <c r="H41" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="2">
         <v>2033603060</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" s="2" t="s">
         <v>178</v>
       </c>
       <c r="G42" s="3"/>
-      <c r="H42" t="s" s="2">
+      <c r="H42" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="43" ht="17" customHeight="1">
+    <row r="43" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A43" s="2">
         <v>8646100317</v>
       </c>
-      <c r="B43" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C43" t="s" s="2">
+      <c r="B43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D43" t="s" s="2">
+      <c r="D43" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G43" s="3"/>
-      <c r="H43" t="s" s="2">
+      <c r="H43" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" ht="17" customHeight="1">
+    <row r="44" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A44" s="2">
         <v>1573401761</v>
       </c>
-      <c r="B44" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C44" t="s" s="2">
+      <c r="B44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" s="2" t="s">
         <v>185</v>
       </c>
       <c r="G44" s="4"/>
-      <c r="H44" t="s" s="2">
+      <c r="H44" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" ht="17" customHeight="1">
+    <row r="45" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="2">
         <v>7209924298</v>
       </c>
-      <c r="B45" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C45" t="s" s="2">
+      <c r="B45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" s="2" t="s">
         <v>189</v>
       </c>
       <c r="G45" s="4"/>
-      <c r="H45" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" ht="17" customHeight="1">
+      <c r="H45" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A46" s="2">
         <v>5913382842</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" s="2" t="s">
         <v>193</v>
       </c>
       <c r="G46" s="3"/>
-      <c r="H46" t="s" s="2">
+      <c r="H46" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" ht="17" customHeight="1">
+    <row r="47" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A47" s="2">
         <v>1872412234</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" s="2" t="s">
         <v>197</v>
       </c>
       <c r="G47" s="4"/>
-      <c r="H47" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" ht="17" customHeight="1">
+      <c r="H47" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="2">
         <v>2548630188</v>
       </c>
-      <c r="B48" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C48" t="s" s="2">
+      <c r="B48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" s="2" t="s">
         <v>201</v>
       </c>
       <c r="G48" s="4"/>
-      <c r="H48" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" ht="17" customHeight="1">
+      <c r="H48" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A49" s="2">
         <v>7222976799</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" s="2" t="s">
         <v>204</v>
       </c>
       <c r="G49" s="3"/>
-      <c r="H49" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" ht="17" customHeight="1">
+      <c r="H49" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="2">
         <v>5009919609</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" s="2" t="s">
         <v>208</v>
       </c>
       <c r="G50" s="4"/>
-      <c r="H50" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" ht="17" customHeight="1">
+      <c r="H50" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="2">
         <v>2905386895</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" s="2" t="s">
         <v>211</v>
       </c>
       <c r="G51" s="4"/>
-      <c r="H51" t="s" s="2">
+      <c r="H51" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="52" ht="17" customHeight="1">
+    <row r="52" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="2">
         <v>3435199951</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" s="2" t="s">
         <v>214</v>
       </c>
       <c r="G52" s="4"/>
-      <c r="H52" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" ht="17" customHeight="1">
+      <c r="H52" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A53" s="2">
         <v>7274546749</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" s="2" t="s">
         <v>218</v>
       </c>
       <c r="G53" s="4"/>
-      <c r="H53" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" ht="17" customHeight="1">
+      <c r="H53" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A54" s="2">
         <v>9137542030</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" s="2" t="s">
         <v>222</v>
       </c>
       <c r="G54" s="3"/>
-      <c r="H54" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" ht="17" customHeight="1">
+      <c r="H54" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A55" s="2">
         <v>2315085632</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G55" s="3"/>
-      <c r="H55" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" ht="17" customHeight="1">
+      <c r="H55" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A56" s="2">
         <v>4287567515</v>
       </c>
-      <c r="B56" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C56" t="s" s="2">
+      <c r="B56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" s="2" t="s">
         <v>230</v>
       </c>
       <c r="G56" s="4"/>
-      <c r="H56" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" ht="17" customHeight="1">
+      <c r="H56" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A57" s="2">
         <v>4836454161</v>
       </c>
-      <c r="B57" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C57" t="s" s="2">
+      <c r="B57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" s="2" t="s">
         <v>234</v>
       </c>
       <c r="G57" s="4"/>
-      <c r="H57" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" ht="17" customHeight="1">
+      <c r="H57" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A58" s="2">
         <v>2981325868</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="59" ht="17" customHeight="1">
+    <row r="59" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A59" s="2">
         <v>1942592543</v>
       </c>
-      <c r="B59" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C59" t="s" s="2">
+      <c r="B59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D59" t="s" s="2">
+      <c r="D59" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="H59" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" ht="17" customHeight="1">
+      <c r="H59" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A60" s="2">
         <v>8648606608</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" s="2" t="s">
         <v>248</v>
       </c>
       <c r="G60" s="4"/>
-      <c r="H60" t="s" s="2">
+      <c r="H60" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="61" ht="17" customHeight="1">
+    <row r="61" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A61" s="2">
         <v>8553574147</v>
       </c>
-      <c r="B61" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C61" t="s" s="2">
+      <c r="B61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" s="2" t="s">
         <v>251</v>
       </c>
       <c r="G61" s="3"/>
-      <c r="H61" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" ht="17" customHeight="1">
+      <c r="H61" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A62" s="2">
         <v>3638347430</v>
       </c>
-      <c r="B62" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C62" t="s" s="2">
+      <c r="B62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" s="2" t="s">
         <v>255</v>
       </c>
       <c r="G62" s="4"/>
-      <c r="H62" t="s" s="2">
+      <c r="H62" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="63" ht="17" customHeight="1">
+    <row r="63" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A63" s="2">
         <v>9564934753</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" s="2" t="s">
         <v>259</v>
       </c>
       <c r="G63" s="4"/>
-      <c r="H63" t="s" s="2">
+      <c r="H63" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="64" ht="17" customHeight="1">
+    <row r="64" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A64" s="2">
         <v>3782276980</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" s="2" t="s">
         <v>263</v>
       </c>
       <c r="G64" s="4"/>
-      <c r="H64" t="s" s="2">
+      <c r="H64" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="65" ht="17" customHeight="1">
+    <row r="65" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A65" s="2">
         <v>3491086654</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" s="2" t="s">
         <v>266</v>
       </c>
       <c r="G65" s="4"/>
-      <c r="H65" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" ht="17" customHeight="1">
+      <c r="H65" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A66" s="2">
         <v>6810118744</v>
       </c>
-      <c r="B66" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C66" t="s" s="2">
+      <c r="B66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G66" s="4"/>
-      <c r="H66" t="s" s="2">
+      <c r="H66" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="67" ht="17" customHeight="1">
+    <row r="67" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A67" s="2">
         <v>6000408850</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B67" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" s="2" t="s">
         <v>274</v>
       </c>
       <c r="G67" s="4"/>
-      <c r="H67" t="s" s="2">
+      <c r="H67" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="68" ht="17" customHeight="1">
+    <row r="68" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A68" s="2">
         <v>7486952306</v>
       </c>
-      <c r="B68" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C68" t="s" s="2">
+      <c r="B68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H68" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" ht="17" customHeight="1">
+      <c r="H68" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A69" s="2">
         <v>1059473080</v>
       </c>
-      <c r="B69" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C69" t="s" s="2">
+      <c r="B69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" s="2" t="s">
         <v>282</v>
       </c>
       <c r="G69" s="4"/>
-      <c r="H69" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" ht="17" customHeight="1">
+      <c r="H69" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A70" s="2">
         <v>4625324202</v>
       </c>
-      <c r="B70" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C70" t="s" s="2">
+      <c r="B70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D70" t="s" s="2">
+      <c r="D70" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" s="2" t="s">
         <v>286</v>
       </c>
       <c r="G70" s="4"/>
-      <c r="H70" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" ht="17" customHeight="1">
+      <c r="H70" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A71" s="2">
         <v>1553000888</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" s="2" t="s">
         <v>290</v>
       </c>
       <c r="G71" s="4"/>
-      <c r="H71" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" ht="17" customHeight="1">
+      <c r="H71" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A72" s="2">
         <v>2653830912</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" s="2" t="s">
         <v>294</v>
       </c>
       <c r="G72" s="4"/>
-      <c r="H72" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" ht="17" customHeight="1">
+      <c r="H72" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A73" s="2">
         <v>3794702036</v>
       </c>
-      <c r="B73" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C73" t="s" s="2">
+      <c r="B73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" s="2" t="s">
         <v>298</v>
       </c>
       <c r="G73" s="4"/>
-      <c r="H73" t="s" s="2">
+      <c r="H73" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="74" ht="17" customHeight="1">
+    <row r="74" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A74" s="2">
         <v>8383062704</v>
       </c>
-      <c r="B74" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C74" t="s" s="2">
+      <c r="B74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="75" ht="17" customHeight="1">
+    <row r="75" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A75" s="2">
         <v>1908733408</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" s="2" t="s">
         <v>307</v>
       </c>
       <c r="G75" s="4"/>
-      <c r="H75" t="s" s="2">
+      <c r="H75" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="76" ht="17" customHeight="1">
+    <row r="76" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A76" s="2">
         <v>6169111536</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" s="2" t="s">
         <v>311</v>
       </c>
       <c r="G76" s="4"/>
-      <c r="H76" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" ht="17" customHeight="1">
+      <c r="H76" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A77" s="2">
         <v>2045615970</v>
       </c>
-      <c r="B77" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C77" t="s" s="2">
+      <c r="B77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" s="2" t="s">
         <v>314</v>
       </c>
       <c r="G77" s="4"/>
-      <c r="H77" t="s" s="2">
+      <c r="H77" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="78" ht="17" customHeight="1">
+    <row r="78" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A78" s="2">
         <v>9679933197</v>
       </c>
-      <c r="B78" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C78" t="s" s="2">
+      <c r="B78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" s="2" t="s">
         <v>318</v>
       </c>
       <c r="G78" s="3"/>
-      <c r="H78" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" ht="17" customHeight="1">
+      <c r="H78" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A79" s="2">
         <v>7588058319</v>
       </c>
-      <c r="B79" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C79" t="s" s="2">
+      <c r="B79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" s="2" t="s">
         <v>322</v>
       </c>
       <c r="G79" s="4"/>
-      <c r="H79" t="s" s="2">
+      <c r="H79" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="80" ht="17" customHeight="1">
+    <row r="80" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A80" s="2">
         <v>3473982310</v>
       </c>
-      <c r="B80" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C80" t="s" s="2">
+      <c r="B80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" s="2" t="s">
         <v>326</v>
       </c>
       <c r="G80" s="4"/>
-      <c r="H80" t="s" s="2">
+      <c r="H80" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="81" ht="17" customHeight="1">
+    <row r="81" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A81" s="2">
         <v>1523731617</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
-      <c r="E81" t="s" s="2">
+      <c r="E81" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" s="2" t="s">
         <v>328</v>
       </c>
       <c r="G81" s="4"/>
-      <c r="H81" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" ht="17" customHeight="1">
+      <c r="H81" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A82" s="2">
         <v>9422138952</v>
       </c>
-      <c r="B82" t="s" s="2">
+      <c r="B82" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
-      <c r="E82" t="s" s="2">
+      <c r="E82" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" s="2" t="s">
         <v>330</v>
       </c>
       <c r="G82" s="3"/>
-      <c r="H82" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" ht="17" customHeight="1">
+      <c r="H82" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A83" s="2">
         <v>4004920137</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
-      <c r="E83" t="s" s="2">
+      <c r="E83" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" s="2" t="s">
         <v>332</v>
       </c>
       <c r="G83" s="4"/>
-      <c r="H83" t="s" s="2">
+      <c r="H83" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="84" ht="17" customHeight="1">
+    <row r="84" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A84" s="2">
         <v>3648801393</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
-      <c r="E84" t="s" s="2">
+      <c r="E84" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H84" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" ht="17" customHeight="1">
+      <c r="H84" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A85" s="2">
         <v>6133800845</v>
       </c>
-      <c r="B85" t="s" s="2">
+      <c r="B85" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
-      <c r="E85" t="s" s="2">
+      <c r="E85" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" s="2" t="s">
         <v>337</v>
       </c>
       <c r="G85" s="3"/>
-      <c r="H85" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" ht="17" customHeight="1">
+      <c r="H85" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A86" s="2">
         <v>7544826042</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
-      <c r="E86" t="s" s="2">
+      <c r="E86" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" s="2" t="s">
         <v>339</v>
       </c>
       <c r="G86" s="4"/>
-      <c r="H86" t="s" s="2">
+      <c r="H86" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="87" ht="17" customHeight="1">
+    <row r="87" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A87" s="2">
         <v>3158822269</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
-      <c r="E87" t="s" s="2">
+      <c r="E87" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" s="2" t="s">
         <v>341</v>
       </c>
       <c r="G87" s="3"/>
-      <c r="H87" t="s" s="2">
+      <c r="H87" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="88" ht="17" customHeight="1">
+    <row r="88" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A88" s="2">
         <v>3388597794</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
-      <c r="E88" t="s" s="2">
+      <c r="E88" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" s="2" t="s">
         <v>343</v>
       </c>
       <c r="G88" s="3"/>
-      <c r="H88" t="s" s="2">
+      <c r="H88" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="89" ht="17" customHeight="1">
+    <row r="89" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A89" s="2">
         <v>9703828505</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
-      <c r="E89" t="s" s="2">
+      <c r="E89" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" s="2" t="s">
         <v>345</v>
       </c>
       <c r="G89" s="4"/>
-      <c r="H89" t="s" s="2">
+      <c r="H89" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="90" ht="17" customHeight="1">
+    <row r="90" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A90" s="2">
         <v>8771298365</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
-      <c r="E90" t="s" s="2">
+      <c r="E90" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" s="2" t="s">
         <v>347</v>
       </c>
       <c r="G90" s="4"/>
-      <c r="H90" t="s" s="2">
+      <c r="H90" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="91" ht="17" customHeight="1">
+    <row r="91" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A91" s="2">
         <v>2506852102</v>
       </c>
-      <c r="B91" t="s" s="2">
+      <c r="B91" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
-      <c r="E91" t="s" s="2">
+      <c r="E91" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" s="2" t="s">
         <v>349</v>
       </c>
       <c r="G91" s="4"/>
-      <c r="H91" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" ht="17" customHeight="1">
+      <c r="H91" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A92" s="2">
         <v>7320756964</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="B92" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
-      <c r="E92" t="s" s="2">
+      <c r="E92" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" s="2" t="s">
         <v>351</v>
       </c>
       <c r="G92" s="4"/>
-      <c r="H92" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" ht="17" customHeight="1">
+      <c r="H92" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A93" s="2">
         <v>3453996851</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
-      <c r="E93" t="s" s="2">
+      <c r="E93" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="H93" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" ht="17" customHeight="1">
+      <c r="H93" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A94" s="2">
         <v>5474244630</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
-      <c r="E94" t="s" s="2">
+      <c r="E94" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" s="2" t="s">
         <v>356</v>
       </c>
       <c r="G94" s="4"/>
-      <c r="H94" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" ht="17" customHeight="1">
+      <c r="H94" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A95" s="2">
         <v>7091362202</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
-      <c r="E95" t="s" s="2">
+      <c r="E95" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" s="2" t="s">
         <v>358</v>
       </c>
       <c r="G95" s="4"/>
-      <c r="H95" t="s" s="2">
+      <c r="H95" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="96" ht="17" customHeight="1">
+    <row r="96" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A96" s="2">
         <v>1940569032</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
-      <c r="E96" t="s" s="2">
+      <c r="E96" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" s="2" t="s">
         <v>360</v>
       </c>
       <c r="G96" s="4"/>
-      <c r="H96" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" ht="17" customHeight="1">
+      <c r="H96" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A97" s="2">
         <v>1443987038</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
-      <c r="E97" t="s" s="2">
+      <c r="E97" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" s="2" t="s">
         <v>362</v>
       </c>
       <c r="G97" s="4"/>
-      <c r="H97" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" ht="17" customHeight="1">
+      <c r="H97" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A98" s="2">
         <v>5512157980</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
-      <c r="E98" t="s" s="2">
+      <c r="E98" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G98" s="4"/>
-      <c r="H98" t="s" s="2">
+      <c r="H98" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="99" ht="17" customHeight="1">
+    <row r="99" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A99" s="2">
         <v>2050121475</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B99" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
-      <c r="E99" t="s" s="2">
+      <c r="E99" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" s="2" t="s">
         <v>366</v>
       </c>
       <c r="G99" s="4"/>
-      <c r="H99" t="s" s="2">
+      <c r="H99" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="100" ht="17" customHeight="1">
+    <row r="100" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A100" s="2">
         <v>6708929393</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
-      <c r="E100" t="s" s="2">
+      <c r="E100" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" s="2" t="s">
         <v>368</v>
       </c>
       <c r="G100" s="4"/>
-      <c r="H100" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" ht="17" customHeight="1">
+      <c r="H100" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A101" s="2">
         <v>7680861724</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
-      <c r="E101" t="s" s="2">
+      <c r="E101" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="102" ht="17" customHeight="1">
+    <row r="102" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A102" s="2">
         <v>1654191494</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
-      <c r="E102" t="s" s="2">
+      <c r="E102" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" s="2" t="s">
         <v>372</v>
       </c>
       <c r="G102" s="4"/>
-      <c r="H102" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" ht="17" customHeight="1">
+      <c r="H102" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A103" s="2">
         <v>6164222552</v>
       </c>
-      <c r="B103" t="s" s="2">
+      <c r="B103" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
-      <c r="E103" t="s" s="2">
+      <c r="E103" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" s="2" t="s">
         <v>374</v>
       </c>
       <c r="G103" s="3"/>
-      <c r="H103" t="s" s="2">
+      <c r="H103" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="104" ht="17" customHeight="1">
+    <row r="104" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A104" s="2">
         <v>6559323457</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
-      <c r="E104" t="s" s="2">
+      <c r="E104" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" s="2" t="s">
         <v>376</v>
       </c>
       <c r="G104" s="4"/>
-      <c r="H104" t="s" s="2">
+      <c r="H104" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="105" ht="17" customHeight="1">
+    <row r="105" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A105" s="2">
         <v>8084408792</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
-      <c r="E105" t="s" s="2">
+      <c r="E105" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" s="2" t="s">
         <v>378</v>
       </c>
       <c r="G105" s="3"/>
-      <c r="H105" t="s" s="2">
+      <c r="H105" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="106" ht="17" customHeight="1">
+    <row r="106" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A106" s="2">
         <v>6545838792</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
-      <c r="E106" t="s" s="2">
+      <c r="E106" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" s="2" t="s">
         <v>381</v>
       </c>
       <c r="G106" s="4"/>
-      <c r="H106" t="s" s="2">
+      <c r="H106" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="107" ht="17" customHeight="1">
+    <row r="107" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A107" s="2">
         <v>6574296904</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
-      <c r="E107" t="s" s="2">
+      <c r="E107" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" s="2" t="s">
         <v>383</v>
       </c>
       <c r="G107" s="4"/>
-      <c r="H107" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" ht="17" customHeight="1">
+      <c r="H107" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A108" s="2">
         <v>8542100279</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
-      <c r="E108" t="s" s="2">
+      <c r="E108" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" s="2" t="s">
         <v>385</v>
       </c>
       <c r="G108" s="3"/>
-      <c r="H108" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" ht="17" customHeight="1">
+      <c r="H108" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A109" s="2">
         <v>2459200056</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B109" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
-      <c r="E109" t="s" s="2">
+      <c r="E109" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" s="2" t="s">
         <v>387</v>
       </c>
       <c r="G109" s="4"/>
-      <c r="H109" t="s" s="2">
+      <c r="H109" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="110" ht="17" customHeight="1">
+    <row r="110" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A110" s="2">
         <v>9688797133</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
-      <c r="E110" t="s" s="2">
+      <c r="E110" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" s="2" t="s">
         <v>388</v>
       </c>
       <c r="G110" s="4"/>
-      <c r="H110" t="s" s="2">
+      <c r="H110" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="111" ht="17" customHeight="1">
+    <row r="111" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A111" s="2">
         <v>3296722190</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
-      <c r="E111" t="s" s="2">
+      <c r="E111" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" s="2" t="s">
         <v>390</v>
       </c>
       <c r="G111" s="4"/>
-      <c r="H111" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" ht="17" customHeight="1">
+      <c r="H111" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A112" s="2">
         <v>5490080998</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="B112" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
-      <c r="E112" t="s" s="2">
+      <c r="E112" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H112" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" ht="17" customHeight="1">
+      <c r="H112" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A113" s="2">
         <v>1700911601</v>
       </c>
-      <c r="B113" t="s" s="2">
+      <c r="B113" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
-      <c r="E113" t="s" s="2">
+      <c r="E113" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" s="2" t="s">
         <v>394</v>
       </c>
       <c r="G113" s="3"/>
-      <c r="H113" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" ht="17" customHeight="1">
+      <c r="H113" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A114" s="2">
         <v>5802405250</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
-      <c r="E114" t="s" s="2">
+      <c r="E114" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H114" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="115" ht="17" customHeight="1">
+      <c r="H114" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A115" s="2">
         <v>3397934991</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
-      <c r="E115" t="s" s="2">
+      <c r="E115" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" s="2" t="s">
         <v>398</v>
       </c>
       <c r="G115" s="3"/>
-      <c r="H115" t="s" s="2">
+      <c r="H115" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="116" ht="17" customHeight="1">
+    <row r="116" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A116" s="2">
         <v>5903736948</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
-      <c r="E116" t="s" s="2">
+      <c r="E116" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" s="2" t="s">
         <v>400</v>
       </c>
       <c r="G116" s="4"/>
-      <c r="H116" t="s" s="2">
+      <c r="H116" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="117" ht="17" customHeight="1">
+    <row r="117" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A117" s="2">
         <v>8873271737</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
-      <c r="E117" t="s" s="2">
+      <c r="E117" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" s="2" t="s">
         <v>402</v>
       </c>
       <c r="G117" s="4"/>
-      <c r="H117" t="s" s="2">
+      <c r="H117" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="118" ht="17" customHeight="1">
+    <row r="118" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A118" s="2">
         <v>6933396214</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
-      <c r="E118" t="s" s="2">
+      <c r="E118" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" s="2" t="s">
         <v>404</v>
       </c>
       <c r="G118" s="4"/>
-      <c r="H118" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" ht="17" customHeight="1">
+      <c r="H118" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A119" s="2">
         <v>7558846804</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
-      <c r="E119" t="s" s="2">
+      <c r="E119" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="120" ht="17" customHeight="1">
+    <row r="120" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A120" s="2">
         <v>5750618957</v>
       </c>
-      <c r="B120" t="s" s="2">
+      <c r="B120" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
-      <c r="E120" t="s" s="2">
+      <c r="E120" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" s="2" t="s">
         <v>408</v>
       </c>
       <c r="G120" s="3"/>
-      <c r="H120" t="s" s="2">
+      <c r="H120" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="121" ht="17" customHeight="1">
+    <row r="121" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A121" s="2">
         <v>6811921916</v>
       </c>
-      <c r="B121" t="s" s="2">
+      <c r="B121" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
-      <c r="E121" t="s" s="2">
+      <c r="E121" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" s="2" t="s">
         <v>410</v>
       </c>
       <c r="G121" s="3"/>
-      <c r="H121" t="s" s="2">
+      <c r="H121" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="122" ht="17" customHeight="1">
+    <row r="122" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A122" s="2">
         <v>2004161189</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
-      <c r="E122" t="s" s="2">
+      <c r="E122" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" s="2" t="s">
         <v>412</v>
       </c>
       <c r="G122" s="4"/>
-      <c r="H122" t="s" s="2">
+      <c r="H122" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="123" ht="17" customHeight="1">
+    <row r="123" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A123" s="2">
         <v>4115225554</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
-      <c r="E123" t="s" s="2">
+      <c r="E123" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" s="2" t="s">
         <v>414</v>
       </c>
       <c r="G123" s="3"/>
-      <c r="H123" t="s" s="2">
+      <c r="H123" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="124" ht="17" customHeight="1">
+    <row r="124" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A124" s="2">
         <v>5536776075</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
-      <c r="E124" t="s" s="2">
+      <c r="E124" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="125" ht="17" customHeight="1">
+    <row r="125" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A125" s="2">
         <v>5171978816</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
-      <c r="E125" t="s" s="2">
+      <c r="E125" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" s="2" t="s">
         <v>419</v>
       </c>
       <c r="G125" s="4"/>
-      <c r="H125" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="126" ht="17" customHeight="1">
+      <c r="H125" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A126" s="2">
         <v>3171815588</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
-      <c r="E126" t="s" s="2">
+      <c r="E126" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" s="2" t="s">
         <v>421</v>
       </c>
       <c r="G126" s="4"/>
-      <c r="H126" t="s" s="2">
+      <c r="H126" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="127" ht="17" customHeight="1">
+    <row r="127" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A127" s="2">
         <v>1346669955</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
-      <c r="E127" t="s" s="2">
+      <c r="E127" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" s="2" t="s">
         <v>422</v>
       </c>
       <c r="G127" s="4"/>
-      <c r="H127" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" ht="17" customHeight="1">
+      <c r="H127" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A128" s="2">
         <v>8657666296</v>
       </c>
-      <c r="B128" t="s" s="2">
+      <c r="B128" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
-      <c r="E128" t="s" s="2">
+      <c r="E128" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" s="2" t="s">
         <v>424</v>
       </c>
       <c r="G128" s="3"/>
-      <c r="H128" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" ht="17" customHeight="1">
+      <c r="H128" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A129" s="2">
         <v>9380640417</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
-      <c r="E129" t="s" s="2">
+      <c r="E129" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" s="2" t="s">
         <v>426</v>
       </c>
       <c r="G129" s="4"/>
-      <c r="H129" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="130" ht="17" customHeight="1">
+      <c r="H129" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A130" s="2">
         <v>7245714093</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
-      <c r="E130" t="s" s="2">
+      <c r="E130" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" s="2" t="s">
         <v>428</v>
       </c>
       <c r="G130" s="4"/>
-      <c r="H130" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" ht="17" customHeight="1">
+      <c r="H130" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A131" s="2">
         <v>6948386756</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B131" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
-      <c r="E131" t="s" s="2">
+      <c r="E131" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" s="2" t="s">
         <v>430</v>
       </c>
       <c r="G131" s="3"/>
-      <c r="H131" t="s" s="2">
+      <c r="H131" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="132" ht="17" customHeight="1">
+    <row r="132" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A132" s="2">
         <v>9621348152</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
-      <c r="E132" t="s" s="2">
+      <c r="E132" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" s="2" t="s">
         <v>432</v>
       </c>
       <c r="G132" s="4"/>
-      <c r="H132" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="133" ht="17" customHeight="1">
+      <c r="H132" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A133" s="2">
         <v>6449559844</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
-      <c r="E133" t="s" s="2">
+      <c r="E133" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" s="2" t="s">
         <v>434</v>
       </c>
       <c r="G133" s="4"/>
-      <c r="H133" t="s" s="2">
+      <c r="H133" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="134" ht="17" customHeight="1">
+    <row r="134" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A134" s="2">
         <v>8100086795</v>
       </c>
-      <c r="B134" t="s" s="2">
+      <c r="B134" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
-      <c r="E134" t="s" s="2">
+      <c r="E134" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="135" ht="17" customHeight="1">
+    <row r="135" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A135" s="2">
         <v>4940411447</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
-      <c r="E135" t="s" s="2">
+      <c r="E135" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="136" ht="17" customHeight="1">
+    <row r="136" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A136" s="2">
         <v>1274381841</v>
       </c>
-      <c r="B136" t="s" s="2">
+      <c r="B136" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
-      <c r="E136" t="s" s="2">
+      <c r="E136" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" s="2" t="s">
         <v>441</v>
       </c>
       <c r="G136" s="4"/>
-      <c r="H136" t="s" s="2">
+      <c r="H136" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="137" ht="17" customHeight="1">
+    <row r="137" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A137" s="2">
         <v>5198902693</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
-      <c r="E137" t="s" s="2">
+      <c r="E137" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" s="2" t="s">
         <v>443</v>
       </c>
       <c r="G137" s="4"/>
-      <c r="H137" t="s" s="2">
+      <c r="H137" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="138" ht="17" customHeight="1">
+    <row r="138" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A138" s="2">
         <v>5303318139</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B138" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
-      <c r="E138" t="s" s="2">
+      <c r="E138" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" s="2" t="s">
         <v>445</v>
       </c>
       <c r="G138" s="4"/>
-      <c r="H138" t="s" s="2">
+      <c r="H138" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="139" ht="17" customHeight="1">
+    <row r="139" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A139" s="2">
         <v>6633743000</v>
       </c>
-      <c r="B139" t="s" s="2">
+      <c r="B139" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
-      <c r="E139" t="s" s="2">
+      <c r="E139" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" s="2" t="s">
         <v>447</v>
       </c>
       <c r="G139" s="4"/>
-      <c r="H139" t="s" s="2">
+      <c r="H139" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="140" ht="17" customHeight="1">
+    <row r="140" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A140" s="2">
         <v>4858027086</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
-      <c r="E140" t="s" s="2">
+      <c r="E140" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" s="2" t="s">
         <v>449</v>
       </c>
       <c r="G140" s="3"/>
-      <c r="H140" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="141" ht="17" customHeight="1">
+      <c r="H140" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A141" s="2">
         <v>8854315898</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
-      <c r="E141" t="s" s="2">
+      <c r="E141" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" s="2" t="s">
         <v>451</v>
       </c>
       <c r="G141" s="4"/>
-      <c r="H141" t="s" s="2">
+      <c r="H141" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="142" ht="17" customHeight="1">
+    <row r="142" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A142" s="2">
         <v>2790754484</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
-      <c r="E142" t="s" s="2">
+      <c r="E142" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" s="2" t="s">
         <v>453</v>
       </c>
       <c r="G142" s="3"/>
-      <c r="H142" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143" ht="17" customHeight="1">
+      <c r="H142" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A143" s="2">
         <v>4471044398</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
-      <c r="E143" t="s" s="2">
+      <c r="E143" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" s="2" t="s">
         <v>455</v>
       </c>
       <c r="G143" s="4"/>
-      <c r="H143" t="s" s="2">
+      <c r="H143" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="144" ht="17" customHeight="1">
+    <row r="144" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A144" s="2">
         <v>2149942282</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
-      <c r="E144" t="s" s="2">
+      <c r="E144" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" s="2" t="s">
         <v>457</v>
       </c>
       <c r="G144" s="3"/>
-      <c r="H144" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" ht="17" customHeight="1">
+      <c r="H144" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A145" s="2">
         <v>4040251391</v>
       </c>
-      <c r="B145" t="s" s="2">
+      <c r="B145" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
-      <c r="E145" t="s" s="2">
+      <c r="E145" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" s="2" t="s">
         <v>459</v>
       </c>
       <c r="G145" s="4"/>
-      <c r="H145" t="s" s="2">
+      <c r="H145" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="146" ht="17" customHeight="1">
+    <row r="146" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A146" s="2">
         <v>3746540505</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
-      <c r="E146" t="s" s="2">
+      <c r="E146" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" s="2" t="s">
         <v>461</v>
       </c>
       <c r="G146" s="4"/>
-      <c r="H146" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="147" ht="17" customHeight="1">
+      <c r="H146" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A147" s="2">
         <v>9577099370</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
-      <c r="E147" t="s" s="2">
+      <c r="E147" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" s="2" t="s">
         <v>463</v>
       </c>
       <c r="G147" s="4"/>
-      <c r="H147" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" ht="17" customHeight="1">
+      <c r="H147" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A148" s="2">
         <v>2282351057</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
-      <c r="E148" t="s" s="2">
+      <c r="E148" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" s="2" t="s">
         <v>465</v>
       </c>
       <c r="G148" s="4"/>
-      <c r="H148" t="s" s="2">
+      <c r="H148" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="149" ht="17" customHeight="1">
+    <row r="149" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A149" s="2">
         <v>9124706323</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
-      <c r="E149" t="s" s="2">
+      <c r="E149" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" s="2" t="s">
         <v>467</v>
       </c>
       <c r="G149" s="3"/>
-      <c r="H149" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="150" ht="17" customHeight="1">
+      <c r="H149" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A150" s="2">
         <v>2644038604</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
-      <c r="E150" t="s" s="2">
+      <c r="E150" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" s="2" t="s">
         <v>469</v>
       </c>
       <c r="G150" s="4"/>
-      <c r="H150" t="s" s="2">
+      <c r="H150" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="151" ht="17" customHeight="1">
+    <row r="151" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A151" s="2">
         <v>2683513773</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B151" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
-      <c r="E151" t="s" s="2">
+      <c r="E151" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" s="2" t="s">
         <v>471</v>
       </c>
       <c r="G151" s="4"/>
-      <c r="H151" t="s" s="2">
+      <c r="H151" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="152" ht="17" customHeight="1">
+    <row r="152" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A152" s="2">
         <v>4791489998</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
-      <c r="E152" t="s" s="2">
+      <c r="E152" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" s="2" t="s">
         <v>473</v>
       </c>
       <c r="G152" s="3"/>
-      <c r="H152" t="s" s="2">
+      <c r="H152" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="153" ht="17" customHeight="1">
+    <row r="153" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A153" s="2">
         <v>5524832140</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
-      <c r="E153" t="s" s="2">
+      <c r="E153" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" s="2" t="s">
         <v>475</v>
       </c>
       <c r="G153" s="4"/>
-      <c r="H153" t="s" s="2">
+      <c r="H153" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="154" ht="17" customHeight="1">
+    <row r="154" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A154" s="2">
         <v>3810901985</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
-      <c r="E154" t="s" s="2">
+      <c r="E154" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" s="2" t="s">
         <v>477</v>
       </c>
       <c r="G154" s="4"/>
-      <c r="H154" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="155" ht="17" customHeight="1">
+      <c r="H154" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A155" s="2">
         <v>9828558246</v>
       </c>
-      <c r="B155" t="s" s="2">
+      <c r="B155" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
-      <c r="E155" t="s" s="2">
+      <c r="E155" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" s="2" t="s">
         <v>479</v>
       </c>
       <c r="G155" s="4"/>
-      <c r="H155" t="s" s="2">
+      <c r="H155" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="156" ht="17" customHeight="1">
+    <row r="156" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A156" s="2">
         <v>6433441879</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
-      <c r="E156" t="s" s="2">
+      <c r="E156" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" s="2" t="s">
         <v>481</v>
       </c>
       <c r="G156" s="4"/>
-      <c r="H156" t="s" s="2">
+      <c r="H156" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="157" ht="17" customHeight="1">
+    <row r="157" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A157" s="2">
         <v>1746096178</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
-      <c r="E157" t="s" s="2">
+      <c r="E157" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" s="2" t="s">
         <v>483</v>
       </c>
       <c r="G157" s="4"/>
-      <c r="H157" t="s" s="2">
+      <c r="H157" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="158" ht="17" customHeight="1">
+    <row r="158" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A158" s="2">
         <v>7590477230</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
-      <c r="E158" t="s" s="2">
+      <c r="E158" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" s="2" t="s">
         <v>485</v>
       </c>
       <c r="G158" s="3"/>
-      <c r="H158" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="159" ht="17" customHeight="1">
+      <c r="H158" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A159" s="2">
         <v>2361498628</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
-      <c r="E159" t="s" s="2">
+      <c r="E159" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" s="2" t="s">
         <v>487</v>
       </c>
       <c r="G159" s="3"/>
-      <c r="H159" t="s" s="2">
+      <c r="H159" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="160" ht="17" customHeight="1">
+    <row r="160" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A160" s="2">
         <v>1187779231</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="B160" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
-      <c r="E160" t="s" s="2">
+      <c r="E160" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" s="2" t="s">
         <v>489</v>
       </c>
       <c r="G160" s="3"/>
-      <c r="H160" t="s" s="2">
+      <c r="H160" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="161" ht="17" customHeight="1">
+    <row r="161" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A161" s="2">
         <v>5791536458</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
-      <c r="E161" t="s" s="2">
+      <c r="E161" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" s="2" t="s">
         <v>491</v>
       </c>
       <c r="G161" s="4"/>
-      <c r="H161" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="162" ht="17" customHeight="1">
+      <c r="H161" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A162" s="2">
         <v>4567102791</v>
       </c>
-      <c r="B162" t="s" s="2">
+      <c r="B162" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
-      <c r="E162" t="s" s="2">
+      <c r="E162" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="163" ht="17" customHeight="1">
+    <row r="163" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A163" s="2">
         <v>6564953250</v>
       </c>
-      <c r="B163" t="s" s="2">
+      <c r="B163" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
-      <c r="E163" t="s" s="2">
+      <c r="E163" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" s="2" t="s">
         <v>495</v>
       </c>
       <c r="G163" s="4"/>
-      <c r="H163" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="164" ht="17" customHeight="1">
+      <c r="H163" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A164" s="2">
         <v>3672716025</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
-      <c r="E164" t="s" s="2">
+      <c r="E164" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H164" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="165" ht="17" customHeight="1">
+      <c r="H164" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A165" s="2">
         <v>2198965858</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
-      <c r="E165" t="s" s="2">
+      <c r="E165" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" s="2" t="s">
         <v>499</v>
       </c>
       <c r="G165" s="4"/>
-      <c r="H165" t="s" s="2">
+      <c r="H165" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="166" ht="17" customHeight="1">
+    <row r="166" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A166" s="2">
         <v>3218314282</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
-      <c r="E166" t="s" s="2">
+      <c r="E166" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" s="2" t="s">
         <v>501</v>
       </c>
       <c r="G166" s="4"/>
-      <c r="H166" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="167" ht="17" customHeight="1">
+      <c r="H166" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A167" s="2">
         <v>4022988426</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="B167" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
-      <c r="E167" t="s" s="2">
+      <c r="E167" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" s="2" t="s">
         <v>503</v>
       </c>
       <c r="G167" s="4"/>
-      <c r="H167" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="168" ht="17" customHeight="1">
+      <c r="H167" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A168" s="2">
         <v>2200398277</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
-      <c r="E168" t="s" s="2">
+      <c r="E168" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" s="2" t="s">
         <v>505</v>
       </c>
       <c r="G168" s="4"/>
-      <c r="H168" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="169" ht="17" customHeight="1">
+      <c r="H168" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A169" s="2">
         <v>2935748573</v>
       </c>
-      <c r="B169" t="s" s="2">
+      <c r="B169" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
-      <c r="E169" t="s" s="2">
+      <c r="E169" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" s="2" t="s">
         <v>507</v>
       </c>
       <c r="G169" s="4"/>
-      <c r="H169" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="170" ht="17" customHeight="1">
+      <c r="H169" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A170" s="2">
         <v>1813045604</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
-      <c r="E170" t="s" s="2">
+      <c r="E170" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" s="2" t="s">
         <v>509</v>
       </c>
       <c r="G170" s="4"/>
-      <c r="H170" t="s" s="2">
+      <c r="H170" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="171" ht="17" customHeight="1">
+    <row r="171" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A171" s="2">
         <v>8089560084</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
-      <c r="E171" t="s" s="2">
+      <c r="E171" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" s="2" t="s">
         <v>511</v>
       </c>
       <c r="G171" s="4"/>
-      <c r="H171" t="s" s="2">
+      <c r="H171" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="172" ht="17" customHeight="1">
+    <row r="172" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A172" s="2">
         <v>3916301318</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
-      <c r="E172" t="s" s="2">
+      <c r="E172" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" s="2" t="s">
         <v>513</v>
       </c>
       <c r="G172" s="4"/>
-      <c r="H172" t="s" s="2">
+      <c r="H172" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="173" ht="17" customHeight="1">
+    <row r="173" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A173" s="2">
         <v>6160538490</v>
       </c>
-      <c r="B173" t="s" s="2">
+      <c r="B173" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
-      <c r="E173" t="s" s="2">
+      <c r="E173" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="174" ht="17" customHeight="1">
+    <row r="174" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A174" s="2">
         <v>2767115207</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
-      <c r="E174" t="s" s="2">
+      <c r="E174" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" s="2" t="s">
         <v>517</v>
       </c>
       <c r="G174" s="4"/>
-      <c r="H174" t="s" s="2">
+      <c r="H174" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="175" ht="17" customHeight="1">
+    <row r="175" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A175" s="2">
         <v>9729563701</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
-      <c r="E175" t="s" s="2">
+      <c r="E175" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G175" s="4"/>
-      <c r="H175" t="s" s="2">
+      <c r="H175" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="176" ht="17" customHeight="1">
+    <row r="176" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A176" s="2">
         <v>6792232159</v>
       </c>
-      <c r="B176" t="s" s="2">
+      <c r="B176" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
-      <c r="E176" t="s" s="2">
+      <c r="E176" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" s="2" t="s">
         <v>521</v>
       </c>
       <c r="G176" s="4"/>
-      <c r="H176" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177" ht="17" customHeight="1">
+      <c r="H176" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A177" s="2">
         <v>3868373217</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
-      <c r="E177" t="s" s="2">
+      <c r="E177" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" s="2" t="s">
         <v>523</v>
       </c>
       <c r="G177" s="4"/>
-      <c r="H177" t="s" s="2">
+      <c r="H177" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="178" ht="17" customHeight="1">
+    <row r="178" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A178" s="2">
         <v>6228851838</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
-      <c r="E178" t="s" s="2">
+      <c r="E178" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" s="2" t="s">
         <v>525</v>
       </c>
       <c r="G178" s="4"/>
-      <c r="H178" t="s" s="2">
+      <c r="H178" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="179" ht="17" customHeight="1">
+    <row r="179" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A179" s="2">
         <v>8881830819</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
-      <c r="E179" t="s" s="2">
+      <c r="E179" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" s="2" t="s">
         <v>527</v>
       </c>
       <c r="G179" s="4"/>
-      <c r="H179" t="s" s="2">
+      <c r="H179" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="180" ht="17" customHeight="1">
+    <row r="180" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A180" s="2">
         <v>3915646787</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
-      <c r="E180" t="s" s="2">
+      <c r="E180" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" s="2" t="s">
         <v>529</v>
       </c>
       <c r="G180" s="4"/>
-      <c r="H180" t="s" s="2">
+      <c r="H180" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="181" ht="17" customHeight="1">
+    <row r="181" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A181" s="2">
         <v>4597093224</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
-      <c r="E181" t="s" s="2">
+      <c r="E181" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" s="2" t="s">
         <v>531</v>
       </c>
       <c r="G181" s="3"/>
-      <c r="H181" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="182" ht="17" customHeight="1">
+      <c r="H181" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A182" s="2">
         <v>6133658437</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
-      <c r="E182" t="s" s="2">
+      <c r="E182" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" s="2" t="s">
         <v>533</v>
       </c>
       <c r="G182" s="3"/>
-      <c r="H182" t="s" s="2">
+      <c r="H182" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="183" ht="17" customHeight="1">
+    <row r="183" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A183" s="2">
         <v>7857465150</v>
       </c>
-      <c r="B183" t="s" s="2">
+      <c r="B183" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
-      <c r="E183" t="s" s="2">
+      <c r="E183" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="184" ht="17" customHeight="1">
+    <row r="184" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A184" s="2">
         <v>1772153971</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
-      <c r="E184" t="s" s="2">
+      <c r="E184" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" s="2" t="s">
         <v>537</v>
       </c>
       <c r="G184" s="3"/>
-      <c r="H184" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="185" ht="17" customHeight="1">
+      <c r="H184" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A185" s="2">
         <v>6630884653</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
-      <c r="E185" t="s" s="2">
+      <c r="E185" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" s="2" t="s">
         <v>539</v>
       </c>
       <c r="G185" s="3"/>
-      <c r="H185" t="s" s="2">
+      <c r="H185" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="186" ht="17" customHeight="1">
+    <row r="186" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A186" s="2">
         <v>2762115642</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
-      <c r="E186" t="s" s="2">
+      <c r="E186" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" s="2" t="s">
         <v>541</v>
       </c>
       <c r="G186" s="4"/>
-      <c r="H186" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="187" ht="17" customHeight="1">
+      <c r="H186" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A187" s="2">
         <v>7861157246</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
-      <c r="E187" t="s" s="2">
+      <c r="E187" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" s="2" t="s">
         <v>543</v>
       </c>
       <c r="G187" s="4"/>
-      <c r="H187" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="188" ht="17" customHeight="1">
+      <c r="H187" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A188" s="2">
         <v>8120054603</v>
       </c>
-      <c r="B188" t="s" s="2">
+      <c r="B188" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
-      <c r="E188" t="s" s="2">
+      <c r="E188" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" s="2" t="s">
         <v>545</v>
       </c>
       <c r="G188" s="3"/>
-      <c r="H188" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="189" ht="17" customHeight="1">
+      <c r="H188" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A189" s="2">
         <v>8080570258</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
-      <c r="E189" t="s" s="2">
+      <c r="E189" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" s="2" t="s">
         <v>546</v>
       </c>
       <c r="G189" s="4"/>
-      <c r="H189" t="s" s="2">
+      <c r="H189" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="190" ht="17" customHeight="1">
+    <row r="190" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A190" s="2">
         <v>7425158118</v>
       </c>
-      <c r="B190" t="s" s="2">
+      <c r="B190" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
-      <c r="E190" t="s" s="2">
+      <c r="E190" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" s="2" t="s">
         <v>548</v>
       </c>
       <c r="G190" s="4"/>
-      <c r="H190" t="s" s="2">
+      <c r="H190" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="191" ht="17" customHeight="1">
+    <row r="191" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A191" s="2">
         <v>9365884078</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
-      <c r="E191" t="s" s="2">
+      <c r="E191" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" s="2" t="s">
         <v>550</v>
       </c>
       <c r="G191" s="3"/>
-      <c r="H191" t="s" s="2">
+      <c r="H191" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="192" ht="17" customHeight="1">
+    <row r="192" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A192" s="2">
         <v>8537830388</v>
       </c>
-      <c r="B192" t="s" s="2">
+      <c r="B192" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
-      <c r="E192" t="s" s="2">
+      <c r="E192" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" s="2" t="s">
         <v>551</v>
       </c>
       <c r="G192" s="3"/>
-      <c r="H192" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="193" ht="17" customHeight="1">
+      <c r="H192" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A193" s="2">
         <v>5615376868</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
-      <c r="E193" t="s" s="2">
+      <c r="E193" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" s="2" t="s">
         <v>553</v>
       </c>
       <c r="G193" s="3"/>
-      <c r="H193" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="194" ht="17" customHeight="1">
+      <c r="H193" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A194" s="2">
         <v>2227839291</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
-      <c r="E194" t="s" s="2">
+      <c r="E194" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="H194" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="195" ht="17" customHeight="1">
+      <c r="H194" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A195" s="2">
         <v>9282229637</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
-      <c r="E195" t="s" s="2">
+      <c r="E195" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" s="2" t="s">
         <v>557</v>
       </c>
       <c r="G195" s="3"/>
-      <c r="H195" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="196" ht="17" customHeight="1">
+      <c r="H195" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A196" s="2">
         <v>4230194469</v>
       </c>
-      <c r="B196" t="s" s="2">
+      <c r="B196" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
-      <c r="E196" t="s" s="2">
+      <c r="E196" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" s="2" t="s">
         <v>559</v>
       </c>
       <c r="G196" s="4"/>
-      <c r="H196" t="s" s="2">
+      <c r="H196" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="197" ht="17" customHeight="1">
+    <row r="197" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A197" s="2">
         <v>4023462942</v>
       </c>
-      <c r="B197" t="s" s="2">
+      <c r="B197" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
-      <c r="E197" t="s" s="2">
+      <c r="E197" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" s="2" t="s">
         <v>561</v>
       </c>
       <c r="G197" s="4"/>
-      <c r="H197" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="198" ht="17" customHeight="1">
+      <c r="H197" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A198" s="2">
         <v>4509938287</v>
       </c>
-      <c r="B198" t="s" s="2">
+      <c r="B198" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
-      <c r="E198" t="s" s="2">
+      <c r="E198" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" s="2" t="s">
         <v>563</v>
       </c>
       <c r="G198" s="4"/>
-      <c r="H198" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="199" ht="17" customHeight="1">
+      <c r="H198" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A199" s="2">
         <v>9506479053</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
-      <c r="E199" t="s" s="2">
+      <c r="E199" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" s="2" t="s">
         <v>565</v>
       </c>
       <c r="G199" s="3"/>
-      <c r="H199" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="200" ht="17" customHeight="1">
+      <c r="H199" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A200" s="2">
         <v>9802293547</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
-      <c r="E200" t="s" s="2">
+      <c r="E200" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" s="2" t="s">
         <v>567</v>
       </c>
       <c r="G200" s="4"/>
-      <c r="H200" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="201" ht="17" customHeight="1">
+      <c r="H200" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A201" s="2">
         <v>2936548463</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" s="2" t="s">
         <v>571</v>
       </c>
       <c r="G201" s="2"/>
-      <c r="H201" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="202" ht="17" customHeight="1">
+      <c r="H201" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A202" s="2">
         <v>9486748673</v>
       </c>
-      <c r="B202" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C202" t="s" s="2">
+      <c r="B202" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="F202" t="s" s="5">
+      <c r="F202" s="5" t="s">
         <v>575</v>
       </c>
       <c r="G202" s="2"/>
-      <c r="H202" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="203" ht="17" customHeight="1">
+      <c r="H202" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A203" s="2">
         <v>9567594739</v>
       </c>
-      <c r="B203" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C203" t="s" s="2">
+      <c r="B203" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="E203" t="s" s="6">
+      <c r="E203" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="F203" t="s" s="7">
+      <c r="F203" s="7" t="s">
         <v>579</v>
       </c>
       <c r="G203" s="8"/>
-      <c r="H203" t="s" s="2">
+      <c r="H203" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="204" ht="17" customHeight="1">
+    <row r="204" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A204" s="2">
         <v>3759573474</v>
       </c>
-      <c r="B204" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C204" t="s" s="2">
+      <c r="B204" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="D204" t="s" s="2">
+      <c r="D204" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="F204" t="s" s="9">
+      <c r="F204" s="9" t="s">
         <v>583</v>
       </c>
       <c r="G204" s="2"/>
-      <c r="H204" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="205" ht="17" customHeight="1">
+      <c r="H204" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A205" s="2">
         <v>8974369483</v>
       </c>
-      <c r="B205" t="s" s="2">
+      <c r="B205" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C205" t="s" s="2">
+      <c r="C205" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="D205" t="s" s="2">
+      <c r="D205" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="206" ht="17" customHeight="1">
+    <row r="206" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A206" s="2">
         <v>4358734050</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C206" t="s" s="2">
+      <c r="C206" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="D206" t="s" s="2">
+      <c r="D206" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" s="2" t="s">
         <v>590</v>
       </c>
       <c r="G206" s="2"/>
-      <c r="H206" t="s" s="2">
+      <c r="H206" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="207" ht="17" customHeight="1">
+    <row r="207" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A207" s="2">
         <v>7839483644</v>
       </c>
-      <c r="B207" t="s" s="2">
+      <c r="B207" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C207" t="s" s="2">
+      <c r="C207" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D207" t="s" s="2">
+      <c r="D207" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" s="2" t="s">
         <v>593</v>
       </c>
       <c r="G207" s="2"/>
-      <c r="H207" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="208" ht="17" customHeight="1">
+      <c r="H207" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A208" s="2">
         <v>4354753688</v>
       </c>
-      <c r="B208" t="s" s="2">
+      <c r="B208" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" s="2" t="s">
         <v>597</v>
       </c>
       <c r="G208" s="2"/>
-      <c r="H208" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="209" ht="17" customHeight="1">
+      <c r="H208" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A209" s="2">
         <v>5367256756</v>
       </c>
-      <c r="B209" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C209" t="s" s="2">
+      <c r="B209" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="D209" t="s" s="2">
+      <c r="D209" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" s="2" t="s">
         <v>601</v>
       </c>
       <c r="G209" s="2"/>
-      <c r="H209" t="s" s="2">
+      <c r="H209" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="210" ht="17" customHeight="1">
+    <row r="210" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A210" s="2">
         <v>3756388788</v>
       </c>
-      <c r="B210" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C210" t="s" s="2">
+      <c r="B210" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D210" t="s" s="2">
+      <c r="D210" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" s="2" t="s">
         <v>604</v>
       </c>
       <c r="G210" s="2"/>
-      <c r="H210" t="s" s="2">
+      <c r="H210" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="211" ht="17" customHeight="1">
+    <row r="211" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A211" s="2">
         <v>5084763757</v>
       </c>
-      <c r="B211" t="s" s="2">
+      <c r="B211" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" s="2" t="s">
         <v>607</v>
       </c>
       <c r="G211" s="2"/>
-      <c r="H211" t="s" s="2">
+      <c r="H211" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="212" ht="17" customHeight="1">
+    <row r="212" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A212" s="2">
         <v>6538667843</v>
       </c>
-      <c r="B212" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C212" t="s" s="2">
+      <c r="B212" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="H212" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="213" ht="24" customHeight="1">
+      <c r="H212" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="20.25">
       <c r="A213" s="2">
         <v>6586786798</v>
       </c>
-      <c r="B213" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C213" t="s" s="2">
+      <c r="B213" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="D213" t="s" s="2">
+      <c r="D213" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" s="2" t="s">
         <v>614</v>
       </c>
       <c r="G213" s="10"/>
-      <c r="H213" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="214" ht="17" customHeight="1">
+      <c r="H213" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A214" s="2">
         <v>9746867836</v>
       </c>
-      <c r="B214" t="s" s="2">
+      <c r="B214" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" s="2" t="s">
         <v>618</v>
       </c>
       <c r="G214" s="2"/>
-      <c r="H214" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="215" ht="17" customHeight="1">
+      <c r="H214" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A215" s="2">
         <v>6247658738</v>
       </c>
-      <c r="B215" t="s" s="2">
+      <c r="B215" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C215" t="s" s="2">
+      <c r="C215" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="D215" t="s" s="2">
+      <c r="D215" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" s="2" t="s">
         <v>622</v>
       </c>
       <c r="G215" s="2"/>
-      <c r="H215" t="s" s="2">
+      <c r="H215" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="216" ht="17" customHeight="1">
+    <row r="216" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A216" s="2">
         <v>6578658738</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C216" t="s" s="2">
+      <c r="C216" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="D216" t="s" s="2">
+      <c r="D216" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="H216" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="217" ht="17" customHeight="1">
+      <c r="H216" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A217" s="2">
         <v>6906479854</v>
       </c>
-      <c r="B217" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C217" t="s" s="2">
+      <c r="B217" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="D217" t="s" s="2">
+      <c r="D217" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" s="2" t="s">
         <v>629</v>
       </c>
       <c r="G217" s="2"/>
-      <c r="H217" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="218" ht="17" customHeight="1">
+      <c r="H217" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A218" s="2">
         <v>5864796568</v>
       </c>
-      <c r="B218" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C218" t="s" s="2">
+      <c r="B218" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" s="2" t="s">
         <v>633</v>
       </c>
       <c r="G218" s="2"/>
-      <c r="H218" t="s" s="2">
+      <c r="H218" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="219" ht="17" customHeight="1">
+    <row r="219" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A219" s="2">
         <v>2879678547</v>
       </c>
-      <c r="B219" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C219" t="s" s="2">
+      <c r="B219" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="D219" t="s" s="2">
+      <c r="D219" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" s="2" t="s">
         <v>637</v>
       </c>
       <c r="G219" s="2"/>
-      <c r="H219" t="s" s="2">
+      <c r="H219" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="220" ht="17" customHeight="1">
+    <row r="220" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A220" s="2">
         <v>9754886805</v>
       </c>
-      <c r="B220" t="s" s="2">
+      <c r="B220" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" s="2" t="s">
         <v>640</v>
       </c>
       <c r="G220" s="2"/>
-      <c r="H220" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="221" ht="17" customHeight="1">
+      <c r="H220" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A221" s="2">
         <v>3120858439</v>
       </c>
-      <c r="B221" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C221" t="s" s="2">
+      <c r="B221" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D221" t="s" s="2">
+      <c r="D221" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" s="2" t="s">
         <v>643</v>
       </c>
       <c r="G221" s="2"/>
-      <c r="H221" t="s" s="2">
+      <c r="H221" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="222" ht="17" customHeight="1">
+    <row r="222" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A222" s="2">
         <v>6531578114</v>
       </c>
-      <c r="B222" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C222" t="s" s="2">
+      <c r="B222" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="D222" t="s" s="2">
+      <c r="D222" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" s="2" t="s">
         <v>647</v>
       </c>
       <c r="G222" s="4"/>
-      <c r="H222" t="s" s="2">
+      <c r="H222" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="223" ht="17" customHeight="1">
+    <row r="223" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A223" s="2">
         <v>6755435778</v>
       </c>
-      <c r="B223" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C223" t="s" s="2">
+      <c r="B223" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C223" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="D223" t="s" s="2">
+      <c r="D223" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" s="2" t="s">
         <v>651</v>
       </c>
       <c r="G223" s="4"/>
-      <c r="H223" t="s" s="2">
+      <c r="H223" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="224" ht="17" customHeight="1">
+    <row r="224" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A224" s="2">
         <v>4222136808</v>
       </c>
-      <c r="B224" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C224" t="s" s="2">
+      <c r="B224" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" s="2" t="s">
         <v>654</v>
       </c>
       <c r="G224" s="4"/>
-      <c r="H224" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="225" ht="17" customHeight="1">
+      <c r="H224" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A225" s="2">
         <v>7785323411</v>
       </c>
-      <c r="B225" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C225" t="s" s="2">
+      <c r="B225" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="D225" t="s" s="2">
+      <c r="D225" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" s="2" t="s">
         <v>657</v>
       </c>
       <c r="G225" s="4"/>
-      <c r="H225" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="226" ht="17" customHeight="1">
+      <c r="H225" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A226" s="2">
         <v>4009008764</v>
       </c>
-      <c r="B226" t="s" s="2">
+      <c r="B226" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C226" t="s" s="2">
+      <c r="C226" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="D226" t="s" s="2">
+      <c r="D226" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" s="2" t="s">
         <v>661</v>
       </c>
       <c r="G226" s="4"/>
-      <c r="H226" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="227" ht="17" customHeight="1">
+      <c r="H226" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A227" s="2">
         <v>3344511679</v>
       </c>
-      <c r="B227" t="s" s="2">
+      <c r="B227" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C227" t="s" s="2">
+      <c r="C227" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="D227" t="s" s="2">
+      <c r="D227" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" s="2" t="s">
         <v>664</v>
       </c>
       <c r="G227" s="4"/>
-      <c r="H227" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="228" ht="17" customHeight="1">
+      <c r="H227" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A228" s="2">
         <v>9860093324</v>
       </c>
-      <c r="B228" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C228" t="s" s="2">
+      <c r="B228" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C228" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="D228" t="s" s="2">
+      <c r="D228" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" s="2" t="s">
         <v>668</v>
       </c>
       <c r="G228" s="4"/>
-      <c r="H228" t="s" s="2">
+      <c r="H228" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="229" ht="17" customHeight="1">
+    <row r="229" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A229" s="2">
         <v>7119965576</v>
       </c>
-      <c r="B229" t="s" s="2">
+      <c r="B229" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C229" t="s" s="2">
+      <c r="C229" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="D229" t="s" s="2">
+      <c r="D229" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" s="2" t="s">
         <v>672</v>
       </c>
       <c r="G229" s="4"/>
-      <c r="H229" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="230" ht="17" customHeight="1">
+      <c r="H229" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A230" s="2">
         <v>8754874326</v>
       </c>
-      <c r="B230" t="s" s="2">
+      <c r="B230" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C230" t="s" s="2">
+      <c r="C230" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="D230" t="s" s="2">
+      <c r="D230" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" s="2" t="s">
         <v>675</v>
       </c>
       <c r="G230" s="4"/>
-      <c r="H230" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="231" ht="17" customHeight="1">
+      <c r="H230" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A231" s="2">
         <v>6856432689</v>
       </c>
-      <c r="B231" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C231" t="s" s="2">
+      <c r="B231" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="D231" t="s" s="2">
+      <c r="D231" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" s="2" t="s">
         <v>678</v>
       </c>
       <c r="G231" s="4"/>
-      <c r="H231" t="s" s="2">
+      <c r="H231" s="2" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
